--- a/clustering/Bookof5year.xlsx
+++ b/clustering/Bookof5year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPUNN\Documents\gitproject\stat_assignment2\clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198CB8B5-0F70-4026-874E-3A0325D5E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633177F6-90A6-441C-A962-595B4D0EDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{26AC53EC-38BD-482E-9C66-EBBFDE5316FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{26AC53EC-38BD-482E-9C66-EBBFDE5316FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2560" sheetId="2" r:id="rId1"/>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +300,7 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0656744-F332-426A-AAC5-9276B77DAB9A}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -1326,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551A7F79-D4A1-43B6-8092-6A0C6200F037}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:H30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,26 +1907,26 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="14">
-        <v>3218.8692310000001</v>
+        <v>3242.1153850000001</v>
       </c>
       <c r="D26" s="14">
-        <v>258020.8</v>
+        <v>250754.5</v>
       </c>
       <c r="E26" s="14">
-        <v>12014.6</v>
+        <v>69232.600000000006</v>
       </c>
       <c r="F26" s="14">
-        <v>68291.133333000005</v>
+        <v>12235.8</v>
       </c>
       <c r="G26" s="14">
-        <v>9248.9</v>
+        <v>17815</v>
       </c>
       <c r="H26" s="14">
-        <v>17293.900000000001</v>
+        <v>9492.6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1933,22 +1934,22 @@
         <v>2</v>
       </c>
       <c r="C27" s="14">
-        <v>2494.7307689999998</v>
+        <v>2428.792308</v>
       </c>
       <c r="D27" s="14">
-        <v>36824.800000000003</v>
+        <v>33148.800000000003</v>
       </c>
       <c r="E27" s="14">
-        <v>6188.9</v>
+        <v>18229.400000000001</v>
       </c>
       <c r="F27" s="14">
-        <v>18122.833332999999</v>
+        <v>6177.6</v>
       </c>
       <c r="G27" s="14">
-        <v>2344.5</v>
+        <v>14050.7</v>
       </c>
       <c r="H27" s="14">
-        <v>12809.2</v>
+        <v>2308.9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1956,22 +1957,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="14">
-        <v>2256</v>
+        <v>2395.461538</v>
       </c>
       <c r="D28" s="14">
-        <v>33810.300000000003</v>
+        <v>34287.599999999999</v>
       </c>
       <c r="E28" s="14">
-        <v>3343.7</v>
+        <v>28952.166667000001</v>
       </c>
       <c r="F28" s="14">
-        <v>24957.133333000002</v>
+        <v>3177.1</v>
       </c>
       <c r="G28" s="14">
-        <v>137892.70000000001</v>
+        <v>29648.7</v>
       </c>
       <c r="H28" s="14">
-        <v>29055.5</v>
+        <v>156059.29999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1979,22 +1980,22 @@
         <v>4</v>
       </c>
       <c r="C29" s="14">
-        <v>5629.7846149999996</v>
+        <v>6189.2846149999996</v>
       </c>
       <c r="D29" s="14">
-        <v>175509.7</v>
+        <v>180797.9</v>
       </c>
       <c r="E29" s="14">
-        <v>238.8</v>
+        <v>5576.1666670000004</v>
       </c>
       <c r="F29" s="14">
-        <v>4094.1333330000002</v>
+        <v>89.2</v>
       </c>
       <c r="G29" s="14">
-        <v>462.3</v>
+        <v>264311.40000000002</v>
       </c>
       <c r="H29" s="14">
-        <v>246083.20000000001</v>
+        <v>268.39999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -2002,26 +2003,27 @@
         <v>5</v>
       </c>
       <c r="C30" s="14">
-        <v>2409.9538459999999</v>
+        <v>2217.707692</v>
       </c>
       <c r="D30" s="14">
-        <v>9244.4</v>
+        <v>8958.9</v>
       </c>
       <c r="E30" s="14">
-        <v>195927.6</v>
+        <v>29759.133333000002</v>
       </c>
       <c r="F30" s="14">
-        <v>28695.3</v>
+        <v>216561.9</v>
       </c>
       <c r="G30" s="14">
-        <v>801.6</v>
+        <v>28477.8</v>
       </c>
       <c r="H30" s="14">
-        <v>27566.7</v>
+        <v>638.79999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2733,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0DB6E5-9B27-4022-9BF8-C5211760437F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -3314,19 +3316,19 @@
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="14">
         <v>4312.8615380000001</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="14">
         <v>140597</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="14">
         <v>17195.400000000001</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="14">
         <v>19158.099999999999</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="14">
         <v>13093.2</v>
       </c>
     </row>
@@ -3334,19 +3336,19 @@
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="14">
         <v>2523.9923079999999</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="14">
         <v>19828.599999999999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="14">
         <v>8126.15</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="14">
         <v>13538</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="14">
         <v>6734.3</v>
       </c>
     </row>
@@ -3354,19 +3356,19 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="14">
         <v>3007.853846</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="14">
         <v>18475.466667000001</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="14">
         <v>116851.35</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="14">
         <v>34694.800000000003</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="14">
         <v>3108.5</v>
       </c>
     </row>
@@ -3374,19 +3376,19 @@
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="14">
         <v>14809.292308</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="14">
         <v>33808.300000000003</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="14">
         <v>1379.95</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="14">
         <v>256160.3</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="14">
         <v>873.7</v>
       </c>
     </row>
@@ -3394,19 +3396,19 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="14">
         <v>2424.8384620000002</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="14">
         <v>34205.133332999998</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="14">
         <v>784.05</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="14">
         <v>29456.2</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="14">
         <v>225866.3</v>
       </c>
     </row>
@@ -3419,7 +3421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A45196C-3ACF-4496-AB2C-6356CB4164C7}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:G31"/>
     </sheetView>
   </sheetViews>

--- a/clustering/Bookof5year.xlsx
+++ b/clustering/Bookof5year.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPUNN\Documents\gitproject\stat_assignment2\clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633177F6-90A6-441C-A962-595B4D0EDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C17983C-B7B7-4074-9753-130A06541711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{26AC53EC-38BD-482E-9C66-EBBFDE5316FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{26AC53EC-38BD-482E-9C66-EBBFDE5316FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2560" sheetId="2" r:id="rId1"/>
     <sheet name="2561" sheetId="3" r:id="rId2"/>
     <sheet name="2562" sheetId="4" r:id="rId3"/>
     <sheet name="2563" sheetId="5" r:id="rId4"/>
-    <sheet name="2564" sheetId="1" r:id="rId5"/>
+    <sheet name="2563(6)" sheetId="6" r:id="rId5"/>
+    <sheet name="2564" sheetId="1" r:id="rId6"/>
+    <sheet name="2564(6)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="34">
   <si>
     <t>กระทรวง-งบรายจ่าย</t>
   </si>
@@ -271,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +303,53 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551A7F79-D4A1-43B6-8092-6A0C6200F037}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -2031,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE4E283-536D-4419-AAA4-9BEC60BC561E}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:H30"/>
     </sheetView>
   </sheetViews>
@@ -2735,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0DB6E5-9B27-4022-9BF8-C5211760437F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -3418,11 +3467,716 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49457B73-F111-4844-B1F6-C46212A72026}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="25" customWidth="1"/>
+    <col min="2" max="8" width="20.7109375" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="40">
+        <v>4076.1</v>
+      </c>
+      <c r="C2" s="40">
+        <v>3087.5</v>
+      </c>
+      <c r="D2" s="40">
+        <v>6567.2</v>
+      </c>
+      <c r="E2" s="40">
+        <v>10321.9</v>
+      </c>
+      <c r="F2" s="40">
+        <v>15056.2</v>
+      </c>
+      <c r="G2" s="40">
+        <v>39108.9</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="40">
+        <v>2352.6999999999998</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1430.2</v>
+      </c>
+      <c r="D3" s="40">
+        <v>2391.5</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1273.7</v>
+      </c>
+      <c r="F3" s="40">
+        <v>1121.5999999999999</v>
+      </c>
+      <c r="G3" s="40">
+        <v>8569.7000000000007</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="40">
+        <v>3654.6</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1516.4</v>
+      </c>
+      <c r="D4" s="40">
+        <v>489.6</v>
+      </c>
+      <c r="E4" s="40">
+        <v>54593</v>
+      </c>
+      <c r="F4" s="40">
+        <v>624.79999999999995</v>
+      </c>
+      <c r="G4" s="40">
+        <v>60878.400000000001</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="40">
+        <v>10254.9</v>
+      </c>
+      <c r="C5" s="40">
+        <v>9090.7000000000007</v>
+      </c>
+      <c r="D5" s="40">
+        <v>4336.6000000000004</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1112.4000000000001</v>
+      </c>
+      <c r="F5" s="40">
+        <v>2154.5</v>
+      </c>
+      <c r="G5" s="40">
+        <v>26949.1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="40">
+        <v>2249.4</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1636.9</v>
+      </c>
+      <c r="D6" s="40">
+        <v>792.3</v>
+      </c>
+      <c r="E6" s="40">
+        <v>529.6</v>
+      </c>
+      <c r="F6" s="40">
+        <v>2344.9</v>
+      </c>
+      <c r="G6" s="40">
+        <v>7553.1</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="40">
+        <v>808.6</v>
+      </c>
+      <c r="C7" s="40">
+        <v>536.70000000000005</v>
+      </c>
+      <c r="D7" s="40">
+        <v>489.1</v>
+      </c>
+      <c r="E7" s="40">
+        <v>31.2</v>
+      </c>
+      <c r="F7" s="40">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="G7" s="40">
+        <v>2158</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="40">
+        <v>11012.2</v>
+      </c>
+      <c r="C8" s="40">
+        <v>5924</v>
+      </c>
+      <c r="D8" s="40">
+        <v>10285</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1216.5999999999999</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1932.2</v>
+      </c>
+      <c r="G8" s="40">
+        <v>30370</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="40">
+        <v>1273.4000000000001</v>
+      </c>
+      <c r="C9" s="40">
+        <v>1517</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1385.6</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1927.9</v>
+      </c>
+      <c r="F9" s="40">
+        <v>794</v>
+      </c>
+      <c r="G9" s="40">
+        <v>6897.9</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="40">
+        <v>11700.1</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1012.7</v>
+      </c>
+      <c r="D10" s="40">
+        <v>9091.6</v>
+      </c>
+      <c r="E10" s="40">
+        <v>104146.9</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1944.2</v>
+      </c>
+      <c r="G10" s="40">
+        <v>127895.5</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40">
+        <v>2745.1</v>
+      </c>
+      <c r="C11" s="40">
+        <v>2812.2</v>
+      </c>
+      <c r="D11" s="40">
+        <v>645.1</v>
+      </c>
+      <c r="E11" s="40">
+        <v>14924.3</v>
+      </c>
+      <c r="F11" s="40">
+        <v>154.9</v>
+      </c>
+      <c r="G11" s="40">
+        <v>21281.599999999999</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="40">
+        <v>1552.5</v>
+      </c>
+      <c r="C12" s="40">
+        <v>1068.9000000000001</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1315.9</v>
+      </c>
+      <c r="E12" s="40">
+        <v>740.8</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1393.2</v>
+      </c>
+      <c r="G12" s="40">
+        <v>6071.3</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="40">
+        <v>2754</v>
+      </c>
+      <c r="C13" s="40">
+        <v>2558.6</v>
+      </c>
+      <c r="D13" s="40">
+        <v>468.3</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1483.9</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1662.8</v>
+      </c>
+      <c r="G13" s="40">
+        <v>8927.6</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="40">
+        <v>1633.6</v>
+      </c>
+      <c r="C14" s="40">
+        <v>620.1</v>
+      </c>
+      <c r="D14" s="40">
+        <v>844.3</v>
+      </c>
+      <c r="E14" s="40">
+        <v>218.6</v>
+      </c>
+      <c r="F14" s="40">
+        <v>2047.2</v>
+      </c>
+      <c r="G14" s="40">
+        <v>5363.8</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="41">
+        <v>230196.3</v>
+      </c>
+      <c r="C15" s="41">
+        <v>19847.400000000001</v>
+      </c>
+      <c r="D15" s="41">
+        <v>22527.3</v>
+      </c>
+      <c r="E15" s="41">
+        <v>89316.7</v>
+      </c>
+      <c r="F15" s="41">
+        <v>6772.6</v>
+      </c>
+      <c r="G15" s="41">
+        <v>368660.3</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="42">
+        <v>19158.099999999999</v>
+      </c>
+      <c r="C16" s="42">
+        <v>13538</v>
+      </c>
+      <c r="D16" s="42">
+        <v>34694.800000000003</v>
+      </c>
+      <c r="E16" s="42">
+        <v>256160.3</v>
+      </c>
+      <c r="F16" s="42">
+        <v>29456.2</v>
+      </c>
+      <c r="G16" s="42">
+        <v>353007.4</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="43">
+        <v>13093.2</v>
+      </c>
+      <c r="C17" s="43">
+        <v>6734.3</v>
+      </c>
+      <c r="D17" s="43">
+        <v>3108.5</v>
+      </c>
+      <c r="E17" s="43">
+        <v>873.7</v>
+      </c>
+      <c r="F17" s="43">
+        <v>225866.3</v>
+      </c>
+      <c r="G17" s="43">
+        <v>249676</v>
+      </c>
+      <c r="H17" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="44">
+        <v>9684.5</v>
+      </c>
+      <c r="C18" s="44">
+        <v>2500.4</v>
+      </c>
+      <c r="D18" s="44">
+        <v>165887.20000000001</v>
+      </c>
+      <c r="E18" s="44">
+        <v>59.1</v>
+      </c>
+      <c r="F18" s="44">
+        <v>708.9</v>
+      </c>
+      <c r="G18" s="44">
+        <v>178840.1</v>
+      </c>
+      <c r="H18" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="45">
+        <v>99248.1</v>
+      </c>
+      <c r="C19" s="45">
+        <v>14860.6</v>
+      </c>
+      <c r="D19" s="45">
+        <v>17465.5</v>
+      </c>
+      <c r="E19" s="45">
+        <v>6945.7</v>
+      </c>
+      <c r="F19" s="45">
+        <v>209.9</v>
+      </c>
+      <c r="G19" s="45">
+        <v>138729.79999999999</v>
+      </c>
+      <c r="H19" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="45">
+        <v>92346.6</v>
+      </c>
+      <c r="C20" s="45">
+        <v>24777.8</v>
+      </c>
+      <c r="D20" s="45">
+        <v>15433.6</v>
+      </c>
+      <c r="E20" s="45">
+        <v>5162.5</v>
+      </c>
+      <c r="F20" s="45">
+        <v>95632.9</v>
+      </c>
+      <c r="G20" s="45">
+        <v>233353.4</v>
+      </c>
+      <c r="H20" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="45">
+        <v>24706.3</v>
+      </c>
+      <c r="C21" s="45">
+        <v>13751.9</v>
+      </c>
+      <c r="D21" s="45">
+        <v>67815.5</v>
+      </c>
+      <c r="E21" s="45">
+        <v>2700.8</v>
+      </c>
+      <c r="F21" s="45">
+        <v>859.2</v>
+      </c>
+      <c r="G21" s="45">
+        <v>109833.7</v>
+      </c>
+      <c r="H21" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>3</v>
+      </c>
+      <c r="G23" s="25">
+        <v>4</v>
+      </c>
+      <c r="H23" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="39">
+        <v>4312.8615380000001</v>
+      </c>
+      <c r="D24" s="39">
+        <v>230196.3</v>
+      </c>
+      <c r="E24" s="39">
+        <v>19158.099999999999</v>
+      </c>
+      <c r="F24" s="39">
+        <v>13093.2</v>
+      </c>
+      <c r="G24" s="39">
+        <v>9684.5</v>
+      </c>
+      <c r="H24" s="39">
+        <v>72100.333333000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="39">
+        <v>2523.9923079999999</v>
+      </c>
+      <c r="D25" s="39">
+        <v>19847.400000000001</v>
+      </c>
+      <c r="E25" s="39">
+        <v>13538</v>
+      </c>
+      <c r="F25" s="39">
+        <v>6734.3</v>
+      </c>
+      <c r="G25" s="39">
+        <v>2500.4</v>
+      </c>
+      <c r="H25" s="39">
+        <v>17796.766667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="39">
+        <v>3007.853846</v>
+      </c>
+      <c r="D26" s="39">
+        <v>22527.3</v>
+      </c>
+      <c r="E26" s="39">
+        <v>34694.800000000003</v>
+      </c>
+      <c r="F26" s="39">
+        <v>3108.5</v>
+      </c>
+      <c r="G26" s="39">
+        <v>165887.20000000001</v>
+      </c>
+      <c r="H26" s="39">
+        <v>33571.533332999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="39">
+        <v>14809.292308</v>
+      </c>
+      <c r="D27" s="39">
+        <v>89316.7</v>
+      </c>
+      <c r="E27" s="39">
+        <v>256160.3</v>
+      </c>
+      <c r="F27" s="39">
+        <v>873.7</v>
+      </c>
+      <c r="G27" s="39">
+        <v>59.1</v>
+      </c>
+      <c r="H27" s="39">
+        <v>4936.3333329999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="39">
+        <v>2424.8384620000002</v>
+      </c>
+      <c r="D28" s="39">
+        <v>6772.6</v>
+      </c>
+      <c r="E28" s="39">
+        <v>29456.2</v>
+      </c>
+      <c r="F28" s="39">
+        <v>225866.3</v>
+      </c>
+      <c r="G28" s="39">
+        <v>708.9</v>
+      </c>
+      <c r="H28" s="39">
+        <v>32234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A45196C-3ACF-4496-AB2C-6356CB4164C7}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
@@ -4102,4 +4856,708 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6972052B-017D-4F8F-93B0-5606F7083888}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
+    <col min="2" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15">
+        <v>4104.5</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3078.3</v>
+      </c>
+      <c r="D2" s="15">
+        <v>6104.3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>12397</v>
+      </c>
+      <c r="F2" s="15">
+        <v>13606.8</v>
+      </c>
+      <c r="G2" s="15">
+        <v>39290.9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2321.9</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1430.5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2325.4</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1070.7</v>
+      </c>
+      <c r="F3" s="15">
+        <v>814.4</v>
+      </c>
+      <c r="G3" s="15">
+        <v>7962.9</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3671.6</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1375.7</v>
+      </c>
+      <c r="D4" s="15">
+        <v>375.7</v>
+      </c>
+      <c r="E4" s="15">
+        <v>63712.9</v>
+      </c>
+      <c r="F4" s="15">
+        <v>584.4</v>
+      </c>
+      <c r="G4" s="15">
+        <v>69720.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10363.6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8775</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3333.1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1937.6</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2418.8000000000002</v>
+      </c>
+      <c r="G5" s="15">
+        <v>26828.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2216.4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1585.4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>845.4</v>
+      </c>
+      <c r="E6" s="15">
+        <v>479.5</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1698.8</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6825.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15">
+        <v>822</v>
+      </c>
+      <c r="C7" s="15">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="D7" s="15">
+        <v>707.8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>30.7</v>
+      </c>
+      <c r="F7" s="15">
+        <v>187.5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2279.1999999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10992.6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5199.8</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10408.799999999999</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1103.5999999999999</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1630.9</v>
+      </c>
+      <c r="G8" s="15">
+        <v>29335.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1311.6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2009.9</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1243.4000000000001</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1945.8</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1791</v>
+      </c>
+      <c r="G9" s="15">
+        <v>8301.7000000000007</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15">
+        <v>11248.4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>939.9</v>
+      </c>
+      <c r="D10" s="15">
+        <v>9956.4</v>
+      </c>
+      <c r="E10" s="15">
+        <v>104384.6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1597.7</v>
+      </c>
+      <c r="G10" s="15">
+        <v>128127</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2746.6</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2519.3000000000002</v>
+      </c>
+      <c r="D11" s="15">
+        <v>397.8</v>
+      </c>
+      <c r="E11" s="15">
+        <v>16598.3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>79.8</v>
+      </c>
+      <c r="G11" s="15">
+        <v>22341.8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1572.6</v>
+      </c>
+      <c r="C12" s="15">
+        <v>892.1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1564.4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>735.9</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1327.7</v>
+      </c>
+      <c r="G12" s="15">
+        <v>6092.7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2697.3</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2509.6</v>
+      </c>
+      <c r="D13" s="15">
+        <v>397.5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1348.7</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1203.3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>8156.4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1635.9</v>
+      </c>
+      <c r="C14" s="15">
+        <v>603.4</v>
+      </c>
+      <c r="D14" s="15">
+        <v>745.8</v>
+      </c>
+      <c r="E14" s="15">
+        <v>157.9</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1516.2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4659.2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="16">
+        <v>107548</v>
+      </c>
+      <c r="C15" s="16">
+        <v>14411.4</v>
+      </c>
+      <c r="D15" s="16">
+        <v>17025.5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>6637.5</v>
+      </c>
+      <c r="F15" s="16">
+        <v>179.9</v>
+      </c>
+      <c r="G15" s="16">
+        <v>145802.29999999999</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16">
+        <v>91027.4</v>
+      </c>
+      <c r="C16" s="16">
+        <v>24102.9</v>
+      </c>
+      <c r="D16" s="16">
+        <v>14426.1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4794.3999999999996</v>
+      </c>
+      <c r="F16" s="16">
+        <v>80179.8</v>
+      </c>
+      <c r="G16" s="16">
+        <v>214530.6</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="16">
+        <v>24376.6</v>
+      </c>
+      <c r="C17" s="16">
+        <v>11495.8</v>
+      </c>
+      <c r="D17" s="16">
+        <v>72292.800000000003</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2001.1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>564.79999999999995</v>
+      </c>
+      <c r="G17" s="16">
+        <v>110731.1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17">
+        <v>19360.2</v>
+      </c>
+      <c r="C18" s="17">
+        <v>12718.1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>38441.4</v>
+      </c>
+      <c r="E18" s="17">
+        <v>235503.6</v>
+      </c>
+      <c r="F18" s="17">
+        <v>28464.400000000001</v>
+      </c>
+      <c r="G18" s="17">
+        <v>334487.7</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18">
+        <v>12988.2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>6567.9</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3421.2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>599.4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>244863.5</v>
+      </c>
+      <c r="G19" s="18">
+        <v>268440.2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="19">
+        <v>9704.7000000000007</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2436.1999999999998</v>
+      </c>
+      <c r="D20" s="19">
+        <v>177009.1</v>
+      </c>
+      <c r="E20" s="19">
+        <v>57.1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>751.6</v>
+      </c>
+      <c r="G20" s="19">
+        <v>189958.7</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="20">
+        <v>223199.6</v>
+      </c>
+      <c r="C21" s="20">
+        <v>20029.5</v>
+      </c>
+      <c r="D21" s="20">
+        <v>19437</v>
+      </c>
+      <c r="E21" s="20">
+        <v>88628.9</v>
+      </c>
+      <c r="F21" s="20">
+        <v>5154.7</v>
+      </c>
+      <c r="G21" s="20">
+        <v>356449.7</v>
+      </c>
+      <c r="H21" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4285</v>
+      </c>
+      <c r="D25" s="14">
+        <v>74317.333333000002</v>
+      </c>
+      <c r="E25" s="14">
+        <v>19360.2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>12988.2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>9704.7000000000007</v>
+      </c>
+      <c r="H25" s="14">
+        <v>223199.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2419.2384619999998</v>
+      </c>
+      <c r="D26" s="14">
+        <v>16670.033332999999</v>
+      </c>
+      <c r="E26" s="14">
+        <v>12718.1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>6567.9</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2436.1999999999998</v>
+      </c>
+      <c r="H26" s="14">
+        <v>20029.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2954.292308</v>
+      </c>
+      <c r="D27" s="14">
+        <v>34581.466667000001</v>
+      </c>
+      <c r="E27" s="14">
+        <v>38441.4</v>
+      </c>
+      <c r="F27" s="14">
+        <v>3421.2</v>
+      </c>
+      <c r="G27" s="14">
+        <v>177009.1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>19437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14">
+        <v>15838.707692</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4477.6666670000004</v>
+      </c>
+      <c r="E28" s="14">
+        <v>235503.6</v>
+      </c>
+      <c r="F28" s="14">
+        <v>599.4</v>
+      </c>
+      <c r="G28" s="14">
+        <v>57.1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>88628.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2189.0230769999998</v>
+      </c>
+      <c r="D29" s="14">
+        <v>26974.833332999999</v>
+      </c>
+      <c r="E29" s="14">
+        <v>28464.400000000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>244863.5</v>
+      </c>
+      <c r="G29" s="14">
+        <v>751.6</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5154.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>